--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_5.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_5.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41165.38909955879</v>
+        <v>41165.38909955883</v>
       </c>
     </row>
     <row r="7">
@@ -26317,22 +26319,22 @@
         <v>26524.82243781067</v>
       </c>
       <c r="D2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781067</v>
       </c>
       <c r="E2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781067</v>
       </c>
       <c r="F2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781067</v>
       </c>
       <c r="G2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781067</v>
       </c>
       <c r="H2" t="n">
         <v>26524.82243781066</v>
       </c>
       <c r="I2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781067</v>
       </c>
       <c r="J2" t="n">
         <v>26524.82243781066</v>
@@ -26341,7 +26343,7 @@
         <v>26524.82243781067</v>
       </c>
       <c r="L2" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781066</v>
       </c>
       <c r="M2" t="n">
         <v>26524.82243781067</v>
@@ -26350,10 +26352,10 @@
         <v>26524.82243781066</v>
       </c>
       <c r="O2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781067</v>
       </c>
       <c r="P2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781067</v>
       </c>
     </row>
     <row r="3">
@@ -26525,16 +26527,16 @@
         <v>-17712.70653731359</v>
       </c>
       <c r="D6" t="n">
-        <v>-17712.7065373136</v>
+        <v>-17712.70653731359</v>
       </c>
       <c r="E6" t="n">
-        <v>15914.8934626864</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="F6" t="n">
-        <v>15914.8934626864</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="G6" t="n">
-        <v>15914.8934626864</v>
+        <v>15914.89346268641</v>
       </c>
       <c r="H6" t="n">
         <v>15914.8934626864</v>
@@ -26546,7 +26548,7 @@
         <v>15914.8934626864</v>
       </c>
       <c r="K6" t="n">
-        <v>15914.89346268641</v>
+        <v>15914.8934626864</v>
       </c>
       <c r="L6" t="n">
         <v>15914.8934626864</v>
@@ -26561,7 +26563,7 @@
         <v>15914.8934626864</v>
       </c>
       <c r="P6" t="n">
-        <v>15914.8934626864</v>
+        <v>15914.89346268641</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_5.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41165.38909955883</v>
+        <v>-84694.86373829618</v>
       </c>
     </row>
     <row r="7">
@@ -26316,13 +26316,13 @@
         <v>26524.82243781067</v>
       </c>
       <c r="C2" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781066</v>
       </c>
       <c r="D2" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781066</v>
       </c>
       <c r="E2" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781066</v>
       </c>
       <c r="F2" t="n">
         <v>26524.82243781067</v>
@@ -26331,7 +26331,7 @@
         <v>26524.82243781067</v>
       </c>
       <c r="H2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781067</v>
       </c>
       <c r="I2" t="n">
         <v>26524.82243781067</v>
@@ -26343,7 +26343,7 @@
         <v>26524.82243781067</v>
       </c>
       <c r="L2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781067</v>
       </c>
       <c r="M2" t="n">
         <v>26524.82243781067</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17712.70653731359</v>
+        <v>-32755.72726512487</v>
       </c>
       <c r="C6" t="n">
-        <v>-17712.70653731359</v>
+        <v>-32755.72726512488</v>
       </c>
       <c r="D6" t="n">
-        <v>-17712.70653731359</v>
+        <v>-32755.72726512488</v>
       </c>
       <c r="E6" t="n">
-        <v>15914.89346268641</v>
+        <v>871.8727348751163</v>
       </c>
       <c r="F6" t="n">
-        <v>15914.89346268641</v>
+        <v>871.8727348751236</v>
       </c>
       <c r="G6" t="n">
-        <v>15914.89346268641</v>
+        <v>871.8727348751272</v>
       </c>
       <c r="H6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751272</v>
       </c>
       <c r="I6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751236</v>
       </c>
       <c r="J6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751163</v>
       </c>
       <c r="K6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751272</v>
       </c>
       <c r="L6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751272</v>
       </c>
       <c r="M6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751272</v>
       </c>
       <c r="N6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751199</v>
       </c>
       <c r="O6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751236</v>
       </c>
       <c r="P6" t="n">
-        <v>15914.89346268641</v>
+        <v>871.8727348751236</v>
       </c>
     </row>
   </sheetData>
